--- a/biology/Zoologie/Angolasaurus/Angolasaurus.xlsx
+++ b/biology/Zoologie/Angolasaurus/Angolasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angolasaurus est un genre éteint de grands reptiles marins carnivores de la famille des Mosasauridae, très proches des varans et serpents modernes.
-Le genre a été découvert en Angola[2] dans des sédiments du Turonien (Crétacé supérieur). Des restes fossiles ont été attribués au genre Angolasaurus dans le Turonien des États-Unis et du Brésil, ainsi que dans le Maastrichtien du Niger.
+Le genre a été découvert en Angola dans des sédiments du Turonien (Crétacé supérieur). Des restes fossiles ont été attribués au genre Angolasaurus dans le Turonien des États-Unis et du Brésil, ainsi que dans le Maastrichtien du Niger.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Angolasaurus est composé du nom du pays Angola où ont été découverts les premiers fossiles, et du mot du grec ancien « σαυρος/sauros » « lézard » pour donner « lézard de l'Angola ».
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Angolasaurus est un petit mosasauridé d'une longueur d'environ 4 mètres.
-Il ressemble beaucoup à son cousin Platecarpus, mais avec un crâne proportionnellement plus long[3].
-Ses dents se répartissent de la façon suivante : 4 sur l'os maxillaire, 11 sur le prémaxillaire et 12 sur l'os dentaire. Son corps est couvert d'écailles carénées permettant une bonne pénétration dans l'eau[4].
+Il ressemble beaucoup à son cousin Platecarpus, mais avec un crâne proportionnellement plus long.
+Ses dents se répartissent de la façon suivante : 4 sur l'os maxillaire, 11 sur le prémaxillaire et 12 sur l'os dentaire. Son corps est couvert d'écailles carénées permettant une bonne pénétration dans l'eau.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une analyse cladistique réalisée en 2016 par R. A. Otero et al.[5] modifie les conclusions de celle réalisée en 2011 par Takuya Konishi &amp; Michael W. Caldwell[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une analyse cladistique réalisée en 2016 par R. A. Otero et al. modifie les conclusions de celle réalisée en 2011 par Takuya Konishi &amp; Michael W. Caldwell.
 Angolasaurus n'est plus considéré comme un Plioplatecarpinae rattaché au clade des Russelosaurina, mais il est directement lié à la famille des Mosasauridae.
-Le cladogramme suivant est extrait cette analyse phylogénétique de 2016[5] :
+Le cladogramme suivant est extrait cette analyse phylogénétique de 2016 :
 </t>
         </is>
       </c>
